--- a/construction/rGSES_top_phenotypes.xlsx
+++ b/construction/rGSES_top_phenotypes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\econ\biroli\geighei\code\GWAS_cleaning\GWAS_construction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parce\Desktop\GeiGhei\GWAS_cleaning\construction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4CBA94-6976-4D75-9166-8F1B37CB51AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC45DE9-22D7-45FE-B9EB-27505EC85A0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BE44C88F-6FBC-0744-BA82-1F47EBF5319D}"/>
   </bookViews>
@@ -468,7 +468,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -496,6 +496,12 @@
       <sz val="14"/>
       <color rgb="FF333333"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -593,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -606,6 +612,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -926,13 +933,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212B4500-157A-D94A-987F-740F8575CE4A}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B29" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31:K48"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.25" customWidth="1"/>
     <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.1640625" bestFit="1" customWidth="1"/>
@@ -1515,7 +1522,9 @@
       <c r="G22">
         <v>19</v>
       </c>
-      <c r="J22" s="9"/>
+      <c r="J22" s="12">
+        <v>4526</v>
+      </c>
       <c r="K22" t="s">
         <v>121</v>
       </c>
@@ -2194,5 +2203,6 @@
     <hyperlink ref="J34" r:id="rId4" display="http://biobank.ctsu.ox.ac.uk/crystal/field.cgi?id=2946" xr:uid="{0D701672-B2BE-44F5-9E02-B9B68C684CFE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/construction/rGSES_top_phenotypes.xlsx
+++ b/construction/rGSES_top_phenotypes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parce\Desktop\GeiGhei\GWAS_cleaning\construction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC45DE9-22D7-45FE-B9EB-27505EC85A0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDF3FF5-742B-4C61-93A4-2D87418A550D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BE44C88F-6FBC-0744-BA82-1F47EBF5319D}"/>
+    <workbookView xWindow="3600" yWindow="280" windowWidth="9330" windowHeight="9920" xr2:uid="{BE44C88F-6FBC-0744-BA82-1F47EBF5319D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="138">
   <si>
     <t xml:space="preserve">Variables </t>
   </si>
@@ -462,6 +462,9 @@
   </si>
   <si>
     <t>2946, 1807, 1845, 3526</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -933,16 +936,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212B4500-157A-D94A-987F-740F8575CE4A}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="33.25" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="0" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="19.33203125" customWidth="1"/>
     <col min="9" max="9" width="13.1640625" customWidth="1"/>
   </cols>
@@ -1348,6 +1352,9 @@
       <c r="G15">
         <v>12</v>
       </c>
+      <c r="I15" t="s">
+        <v>137</v>
+      </c>
       <c r="J15" s="9">
         <v>20018</v>
       </c>
@@ -1372,6 +1379,9 @@
       <c r="G16">
         <v>13</v>
       </c>
+      <c r="I16" t="s">
+        <v>137</v>
+      </c>
       <c r="J16" s="9" t="s">
         <v>117</v>
       </c>
@@ -1399,6 +1409,9 @@
       <c r="G17">
         <v>14</v>
       </c>
+      <c r="I17" t="s">
+        <v>137</v>
+      </c>
       <c r="J17" s="9">
         <v>137</v>
       </c>
@@ -1448,6 +1461,9 @@
       <c r="G19">
         <v>16</v>
       </c>
+      <c r="I19" t="s">
+        <v>137</v>
+      </c>
       <c r="J19" s="9">
         <v>2020</v>
       </c>
@@ -1549,6 +1565,9 @@
       <c r="G23">
         <v>20</v>
       </c>
+      <c r="I23" t="s">
+        <v>137</v>
+      </c>
       <c r="J23" s="9">
         <v>20116</v>
       </c>
@@ -1573,6 +1592,9 @@
       <c r="G24">
         <v>21</v>
       </c>
+      <c r="I24" t="s">
+        <v>137</v>
+      </c>
       <c r="J24" s="9">
         <v>20126</v>
       </c>
@@ -1600,6 +1622,9 @@
       <c r="G25">
         <v>22</v>
       </c>
+      <c r="I25" t="s">
+        <v>137</v>
+      </c>
       <c r="J25" s="9">
         <v>1200</v>
       </c>
@@ -1624,6 +1649,9 @@
       <c r="G26">
         <v>23</v>
       </c>
+      <c r="I26" t="s">
+        <v>137</v>
+      </c>
       <c r="J26" s="9" t="s">
         <v>124</v>
       </c>
@@ -1651,6 +1679,9 @@
       <c r="G27">
         <v>24</v>
       </c>
+      <c r="I27" t="s">
+        <v>137</v>
+      </c>
       <c r="J27" s="9">
         <v>135</v>
       </c>
@@ -1675,6 +1706,9 @@
       <c r="G28">
         <v>25</v>
       </c>
+      <c r="I28" t="s">
+        <v>137</v>
+      </c>
       <c r="J28" s="9">
         <v>20421</v>
       </c>
@@ -1726,6 +1760,9 @@
       <c r="G30">
         <v>27</v>
       </c>
+      <c r="I30" t="s">
+        <v>137</v>
+      </c>
       <c r="J30" s="9">
         <v>50</v>
       </c>
@@ -1750,6 +1787,9 @@
       <c r="G31">
         <v>28</v>
       </c>
+      <c r="I31" t="s">
+        <v>137</v>
+      </c>
       <c r="J31">
         <v>22127</v>
       </c>
@@ -1774,6 +1814,9 @@
       <c r="G32">
         <v>29</v>
       </c>
+      <c r="I32" t="s">
+        <v>137</v>
+      </c>
       <c r="J32">
         <v>20127</v>
       </c>
@@ -1798,6 +1841,9 @@
       <c r="G33">
         <v>30</v>
       </c>
+      <c r="I33" t="s">
+        <v>137</v>
+      </c>
       <c r="J33">
         <v>2000</v>
       </c>
@@ -1879,6 +1925,9 @@
       <c r="G36">
         <v>33</v>
       </c>
+      <c r="I36" t="s">
+        <v>137</v>
+      </c>
       <c r="J36">
         <v>40006</v>
       </c>
@@ -1906,6 +1955,9 @@
       <c r="G37">
         <v>34</v>
       </c>
+      <c r="I37" t="s">
+        <v>137</v>
+      </c>
       <c r="J37">
         <v>30690</v>
       </c>
@@ -1933,6 +1985,9 @@
       <c r="G38">
         <v>35</v>
       </c>
+      <c r="I38" t="s">
+        <v>137</v>
+      </c>
       <c r="J38">
         <v>6150</v>
       </c>
@@ -1960,6 +2015,9 @@
       <c r="G39">
         <v>36</v>
       </c>
+      <c r="I39" t="s">
+        <v>137</v>
+      </c>
       <c r="J39">
         <v>2405</v>
       </c>
@@ -1984,6 +2042,9 @@
       <c r="G40">
         <v>37</v>
       </c>
+      <c r="I40" t="s">
+        <v>137</v>
+      </c>
       <c r="J40">
         <v>41204</v>
       </c>
@@ -2008,6 +2069,9 @@
       <c r="G41">
         <v>38</v>
       </c>
+      <c r="I41" t="s">
+        <v>137</v>
+      </c>
       <c r="J41">
         <v>2453</v>
       </c>
@@ -2031,6 +2095,9 @@
       </c>
       <c r="G42">
         <v>39</v>
+      </c>
+      <c r="I42" t="s">
+        <v>137</v>
       </c>
       <c r="J42">
         <v>2040</v>

--- a/construction/rGSES_top_phenotypes.xlsx
+++ b/construction/rGSES_top_phenotypes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parce\Desktop\GeiGhei\GWAS_cleaning\construction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDF3FF5-742B-4C61-93A4-2D87418A550D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4838B59C-8C7B-4E1D-88B2-C999AC2442AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3600" yWindow="280" windowWidth="9330" windowHeight="9920" xr2:uid="{BE44C88F-6FBC-0744-BA82-1F47EBF5319D}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="137">
   <si>
     <t xml:space="preserve">Variables </t>
   </si>
@@ -447,9 +447,6 @@
   </si>
   <si>
     <t>Not in atlas</t>
-  </si>
-  <si>
-    <t>42021, 42021</t>
   </si>
   <si>
     <t>Not in atlas. Only UKB2(Meta)</t>
@@ -936,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212B4500-157A-D94A-987F-740F8575CE4A}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
@@ -1353,7 +1350,7 @@
         <v>12</v>
       </c>
       <c r="I15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J15" s="9">
         <v>20018</v>
@@ -1380,7 +1377,7 @@
         <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>117</v>
@@ -1410,7 +1407,7 @@
         <v>14</v>
       </c>
       <c r="I17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J17" s="9">
         <v>137</v>
@@ -1462,7 +1459,7 @@
         <v>16</v>
       </c>
       <c r="I19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J19" s="9">
         <v>2020</v>
@@ -1566,7 +1563,7 @@
         <v>20</v>
       </c>
       <c r="I23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J23" s="9">
         <v>20116</v>
@@ -1593,7 +1590,7 @@
         <v>21</v>
       </c>
       <c r="I24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J24" s="9">
         <v>20126</v>
@@ -1623,7 +1620,7 @@
         <v>22</v>
       </c>
       <c r="I25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J25" s="9">
         <v>1200</v>
@@ -1650,7 +1647,7 @@
         <v>23</v>
       </c>
       <c r="I26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J26" s="9" t="s">
         <v>124</v>
@@ -1680,7 +1677,7 @@
         <v>24</v>
       </c>
       <c r="I27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J27" s="9">
         <v>135</v>
@@ -1707,7 +1704,7 @@
         <v>25</v>
       </c>
       <c r="I28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J28" s="9">
         <v>20421</v>
@@ -1761,7 +1758,7 @@
         <v>27</v>
       </c>
       <c r="I30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J30" s="9">
         <v>50</v>
@@ -1788,7 +1785,7 @@
         <v>28</v>
       </c>
       <c r="I31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J31">
         <v>22127</v>
@@ -1815,7 +1812,7 @@
         <v>29</v>
       </c>
       <c r="I32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J32">
         <v>20127</v>
@@ -1842,7 +1839,7 @@
         <v>30</v>
       </c>
       <c r="I33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J33">
         <v>2000</v>
@@ -1872,7 +1869,7 @@
         <v>31</v>
       </c>
       <c r="J34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K34" s="11" t="s">
         <v>128</v>
@@ -1926,7 +1923,7 @@
         <v>33</v>
       </c>
       <c r="I36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J36">
         <v>40006</v>
@@ -1956,7 +1953,7 @@
         <v>34</v>
       </c>
       <c r="I37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J37">
         <v>30690</v>
@@ -1986,7 +1983,7 @@
         <v>35</v>
       </c>
       <c r="I38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J38">
         <v>6150</v>
@@ -2016,7 +2013,7 @@
         <v>36</v>
       </c>
       <c r="I39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J39">
         <v>2405</v>
@@ -2043,7 +2040,7 @@
         <v>37</v>
       </c>
       <c r="I40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J40">
         <v>41204</v>
@@ -2070,7 +2067,7 @@
         <v>38</v>
       </c>
       <c r="I41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J41">
         <v>2453</v>
@@ -2097,7 +2094,7 @@
         <v>39</v>
       </c>
       <c r="I42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J42">
         <v>2040</v>
@@ -2123,11 +2120,14 @@
       <c r="G43">
         <v>40</v>
       </c>
-      <c r="J43" t="s">
+      <c r="I43" t="s">
+        <v>136</v>
+      </c>
+      <c r="J43">
+        <v>42021</v>
+      </c>
+      <c r="K43" s="11" t="s">
         <v>132</v>
-      </c>
-      <c r="K43" s="11" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2150,6 +2150,9 @@
       <c r="G44">
         <v>41</v>
       </c>
+      <c r="I44" t="s">
+        <v>136</v>
+      </c>
       <c r="J44">
         <v>6148</v>
       </c>
@@ -2202,7 +2205,7 @@
         <v>2734</v>
       </c>
       <c r="K46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2226,7 +2229,7 @@
         <v>44</v>
       </c>
       <c r="J47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K47" s="11" t="s">
         <v>131</v>

--- a/construction/rGSES_top_phenotypes.xlsx
+++ b/construction/rGSES_top_phenotypes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parce\Desktop\GeiGhei\GWAS_cleaning\construction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4838B59C-8C7B-4E1D-88B2-C999AC2442AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E970FF38-72E5-4496-B592-B5B8CCEE9A3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="280" windowWidth="9330" windowHeight="9920" xr2:uid="{BE44C88F-6FBC-0744-BA82-1F47EBF5319D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BE44C88F-6FBC-0744-BA82-1F47EBF5319D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="137">
   <si>
     <t xml:space="preserve">Variables </t>
   </si>
@@ -933,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212B4500-157A-D94A-987F-740F8575CE4A}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
@@ -2177,6 +2177,9 @@
       <c r="G45">
         <v>42</v>
       </c>
+      <c r="I45" t="s">
+        <v>136</v>
+      </c>
       <c r="J45">
         <v>2247</v>
       </c>
@@ -2201,6 +2204,9 @@
       <c r="G46">
         <v>43</v>
       </c>
+      <c r="I46" t="s">
+        <v>136</v>
+      </c>
       <c r="J46">
         <v>2734</v>
       </c>
@@ -2228,6 +2234,9 @@
       <c r="G47">
         <v>44</v>
       </c>
+      <c r="I47" t="s">
+        <v>136</v>
+      </c>
       <c r="J47" t="s">
         <v>134</v>
       </c>
@@ -2254,6 +2263,9 @@
       </c>
       <c r="G48">
         <v>45</v>
+      </c>
+      <c r="I48" t="s">
+        <v>136</v>
       </c>
       <c r="J48">
         <v>20001</v>

--- a/construction/rGSES_top_phenotypes.xlsx
+++ b/construction/rGSES_top_phenotypes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parce\Desktop\GeiGhei\GWAS_cleaning\construction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E970FF38-72E5-4496-B592-B5B8CCEE9A3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95ACA5F0-A507-49F5-93B6-0747828084EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BE44C88F-6FBC-0744-BA82-1F47EBF5319D}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="137">
   <si>
     <t xml:space="preserve">Variables </t>
   </si>
@@ -933,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212B4500-157A-D94A-987F-740F8575CE4A}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
@@ -1324,7 +1324,12 @@
       <c r="G14">
         <v>11</v>
       </c>
-      <c r="J14" s="9"/>
+      <c r="I14" t="s">
+        <v>136</v>
+      </c>
+      <c r="J14" s="9">
+        <v>41204</v>
+      </c>
       <c r="K14" t="s">
         <v>115</v>
       </c>
@@ -1535,6 +1540,7 @@
       <c r="G22">
         <v>19</v>
       </c>
+      <c r="I22" s="12"/>
       <c r="J22" s="12">
         <v>4526</v>
       </c>
